--- a/TAS2R-msa_annotated.xlsx
+++ b/TAS2R-msa_annotated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\Dropbox\T2R16\Natcom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bouys\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68033B42-1DF1-4C6D-A909-95CA7C656AE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C48BC24-02CA-43A6-82F2-82D81D6CA6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37272" yWindow="-216" windowWidth="21144" windowHeight="15936" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Annotated_MSA" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9605" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9606" uniqueCount="410">
   <si>
     <t>Uniprot</t>
   </si>
@@ -1262,6 +1262,9 @@
   <si>
     <t>References of site-directed mutagenesis data</t>
   </si>
+  <si>
+    <t>Sandal 2015, JCTC 11(9):4439-49</t>
+  </si>
 </sst>
 </file>
 
@@ -1680,6 +1683,9 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1687,9 +1693,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -32058,7 +32061,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -32357,38 +32360,38 @@
   <dimension ref="A1:NA43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="IT1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BW28" sqref="BW28"/>
+      <pane xSplit="1" topLeftCell="AY1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.76953125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.2265625" customWidth="1"/>
-    <col min="3" max="4" width="7.453125" customWidth="1"/>
-    <col min="5" max="55" width="4.76953125" style="2" customWidth="1"/>
-    <col min="56" max="56" width="4.76953125" style="3" customWidth="1"/>
-    <col min="57" max="82" width="4.76953125" style="2" customWidth="1"/>
-    <col min="83" max="83" width="4.76953125" style="3" customWidth="1"/>
-    <col min="84" max="131" width="4.76953125" style="2" customWidth="1"/>
-    <col min="132" max="132" width="4.76953125" style="3" customWidth="1"/>
-    <col min="133" max="155" width="4.76953125" style="2" customWidth="1"/>
-    <col min="156" max="156" width="4.76953125" style="3" customWidth="1"/>
-    <col min="157" max="167" width="4.76953125" style="2" customWidth="1"/>
-    <col min="168" max="168" width="4.76953125" style="3" customWidth="1"/>
-    <col min="169" max="243" width="4.76953125" style="2" customWidth="1"/>
-    <col min="244" max="244" width="4.76953125" style="3" customWidth="1"/>
-    <col min="245" max="279" width="4.76953125" style="2" customWidth="1"/>
-    <col min="280" max="280" width="4.76953125" style="3" customWidth="1"/>
-    <col min="281" max="320" width="4.76953125" style="2" customWidth="1"/>
-    <col min="321" max="321" width="4.76953125" style="3" customWidth="1"/>
-    <col min="322" max="365" width="4.76953125" style="2" customWidth="1"/>
-    <col min="366" max="1020" width="10.2265625" customWidth="1"/>
-    <col min="1021" max="1023" width="8.76953125" customWidth="1"/>
-    <col min="1024" max="1025" width="8.86328125" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="3" max="4" width="7.44140625" customWidth="1"/>
+    <col min="5" max="55" width="4.77734375" style="2" customWidth="1"/>
+    <col min="56" max="56" width="4.77734375" style="3" customWidth="1"/>
+    <col min="57" max="82" width="4.77734375" style="2" customWidth="1"/>
+    <col min="83" max="83" width="4.77734375" style="3" customWidth="1"/>
+    <col min="84" max="131" width="4.77734375" style="2" customWidth="1"/>
+    <col min="132" max="132" width="4.77734375" style="3" customWidth="1"/>
+    <col min="133" max="155" width="4.77734375" style="2" customWidth="1"/>
+    <col min="156" max="156" width="4.77734375" style="3" customWidth="1"/>
+    <col min="157" max="167" width="4.77734375" style="2" customWidth="1"/>
+    <col min="168" max="168" width="4.77734375" style="3" customWidth="1"/>
+    <col min="169" max="243" width="4.77734375" style="2" customWidth="1"/>
+    <col min="244" max="244" width="4.77734375" style="3" customWidth="1"/>
+    <col min="245" max="279" width="4.77734375" style="2" customWidth="1"/>
+    <col min="280" max="280" width="4.77734375" style="3" customWidth="1"/>
+    <col min="281" max="320" width="4.77734375" style="2" customWidth="1"/>
+    <col min="321" max="321" width="4.77734375" style="3" customWidth="1"/>
+    <col min="322" max="365" width="4.77734375" style="2" customWidth="1"/>
+    <col min="366" max="1020" width="10.21875" customWidth="1"/>
+    <col min="1021" max="1023" width="8.77734375" customWidth="1"/>
+    <col min="1024" max="1025" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:365" s="6" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:365" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -33483,7 +33486,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:365" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:365" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -34580,7 +34583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:365" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:365" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
@@ -35677,7 +35680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:365" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:365" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>28</v>
       </c>
@@ -36774,7 +36777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:365" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:365" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>30</v>
       </c>
@@ -37871,7 +37874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:365" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:365" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>32</v>
       </c>
@@ -38968,7 +38971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:365" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:365" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>34</v>
       </c>
@@ -40065,7 +40068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:365" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:365" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>36</v>
       </c>
@@ -41162,7 +41165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:365" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:365" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>38</v>
       </c>
@@ -42021,7 +42024,7 @@
       <c r="JZ9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="KA9" s="63" t="s">
+      <c r="KA9" s="60" t="s">
         <v>12</v>
       </c>
       <c r="KB9" s="3" t="s">
@@ -42259,7 +42262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:365" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:365" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>40</v>
       </c>
@@ -43356,7 +43359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:365" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:365" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>42</v>
       </c>
@@ -44453,7 +44456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:365" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:365" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>44</v>
       </c>
@@ -45550,7 +45553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:365" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="13" spans="1:365" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>46</v>
       </c>
@@ -46647,7 +46650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:365" ht="16.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="14" spans="1:365" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>48</v>
       </c>
@@ -47744,7 +47747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:365" ht="15.5" thickTop="1" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:365" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>50</v>
       </c>
@@ -48841,7 +48844,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:365" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:365" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>52</v>
       </c>
@@ -49938,7 +49941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:365" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:365" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>54</v>
       </c>
@@ -51035,7 +51038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:365" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:365" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>56</v>
       </c>
@@ -52132,7 +52135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:365" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:365" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>58</v>
       </c>
@@ -53229,7 +53232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:365" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:365" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>60</v>
       </c>
@@ -54326,7 +54329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:365" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:365" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>62</v>
       </c>
@@ -55423,7 +55426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:365" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:365" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>64</v>
       </c>
@@ -56520,7 +56523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:365" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:365" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>66</v>
       </c>
@@ -57617,7 +57620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:365" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:365" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>68</v>
       </c>
@@ -58714,7 +58717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:365" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:365" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>70</v>
       </c>
@@ -59811,7 +59814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:365" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:365" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>72</v>
       </c>
@@ -60908,7 +60911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:365" ht="27.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:365" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>74</v>
       </c>
@@ -61786,7 +61789,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="28" spans="1:365" s="28" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:365" s="28" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>75</v>
       </c>
@@ -62728,7 +62731,7 @@
       <c r="MZ28" s="29"/>
       <c r="NA28" s="29"/>
     </row>
-    <row r="29" spans="1:365" s="31" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:365" s="31" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
         <v>367</v>
       </c>
@@ -63726,7 +63729,7 @@
       <c r="MZ29" s="32"/>
       <c r="NA29" s="32"/>
     </row>
-    <row r="30" spans="1:365" s="32" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:365" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
         <v>368</v>
       </c>
@@ -63866,7 +63869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:365" s="2" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:365" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="37" t="s">
         <v>370</v>
       </c>
@@ -63984,7 +63987,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:365" s="2" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:365" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="37" t="s">
         <v>371</v>
       </c>
@@ -64092,7 +64095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:365" s="39" customFormat="1" ht="26.7" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:365" s="39" customFormat="1" ht="26.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="38" t="s">
         <v>372</v>
       </c>
@@ -64128,34 +64131,34 @@
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
       <c r="AJ33" s="2"/>
-      <c r="AK33" s="61" t="s">
+      <c r="AK33" s="62" t="s">
         <v>373</v>
       </c>
-      <c r="AL33" s="61"/>
-      <c r="AM33" s="61"/>
-      <c r="AN33" s="61"/>
-      <c r="AO33" s="61"/>
-      <c r="AP33" s="61"/>
-      <c r="AQ33" s="61"/>
-      <c r="AR33" s="61"/>
-      <c r="AS33" s="61"/>
-      <c r="AT33" s="61"/>
-      <c r="AU33" s="61"/>
-      <c r="AV33" s="61"/>
-      <c r="AW33" s="61"/>
-      <c r="AX33" s="61"/>
-      <c r="AY33" s="61"/>
-      <c r="AZ33" s="61"/>
-      <c r="BA33" s="61"/>
-      <c r="BB33" s="61"/>
-      <c r="BC33" s="61"/>
-      <c r="BD33" s="61"/>
-      <c r="BE33" s="61"/>
-      <c r="BF33" s="61"/>
-      <c r="BG33" s="61"/>
-      <c r="BH33" s="61"/>
-      <c r="BI33" s="61"/>
-      <c r="BJ33" s="61"/>
+      <c r="AL33" s="62"/>
+      <c r="AM33" s="62"/>
+      <c r="AN33" s="62"/>
+      <c r="AO33" s="62"/>
+      <c r="AP33" s="62"/>
+      <c r="AQ33" s="62"/>
+      <c r="AR33" s="62"/>
+      <c r="AS33" s="62"/>
+      <c r="AT33" s="62"/>
+      <c r="AU33" s="62"/>
+      <c r="AV33" s="62"/>
+      <c r="AW33" s="62"/>
+      <c r="AX33" s="62"/>
+      <c r="AY33" s="62"/>
+      <c r="AZ33" s="62"/>
+      <c r="BA33" s="62"/>
+      <c r="BB33" s="62"/>
+      <c r="BC33" s="62"/>
+      <c r="BD33" s="62"/>
+      <c r="BE33" s="62"/>
+      <c r="BF33" s="62"/>
+      <c r="BG33" s="62"/>
+      <c r="BH33" s="62"/>
+      <c r="BI33" s="62"/>
+      <c r="BJ33" s="62"/>
       <c r="BO33" s="2"/>
       <c r="BP33" s="2"/>
       <c r="BQ33" s="2"/>
@@ -64164,37 +64167,37 @@
       <c r="BT33" s="2"/>
       <c r="BU33" s="2"/>
       <c r="BV33" s="2"/>
-      <c r="BW33" s="61" t="s">
+      <c r="BW33" s="62" t="s">
         <v>374</v>
       </c>
-      <c r="BX33" s="61"/>
-      <c r="BY33" s="61"/>
-      <c r="BZ33" s="61"/>
-      <c r="CA33" s="61"/>
-      <c r="CB33" s="61"/>
-      <c r="CC33" s="61"/>
-      <c r="CD33" s="61"/>
-      <c r="CE33" s="61"/>
-      <c r="CF33" s="61"/>
-      <c r="CG33" s="61"/>
-      <c r="CH33" s="61"/>
-      <c r="CI33" s="61"/>
-      <c r="CJ33" s="61"/>
-      <c r="CK33" s="61"/>
-      <c r="CL33" s="61"/>
-      <c r="CM33" s="61"/>
-      <c r="CN33" s="61"/>
-      <c r="CO33" s="61"/>
-      <c r="CP33" s="61"/>
-      <c r="CQ33" s="61"/>
-      <c r="CR33" s="61"/>
-      <c r="CS33" s="61"/>
-      <c r="CT33" s="61"/>
-      <c r="CU33" s="61"/>
-      <c r="CV33" s="61"/>
-      <c r="CW33" s="61"/>
-      <c r="CX33" s="61"/>
-      <c r="CY33" s="61"/>
+      <c r="BX33" s="62"/>
+      <c r="BY33" s="62"/>
+      <c r="BZ33" s="62"/>
+      <c r="CA33" s="62"/>
+      <c r="CB33" s="62"/>
+      <c r="CC33" s="62"/>
+      <c r="CD33" s="62"/>
+      <c r="CE33" s="62"/>
+      <c r="CF33" s="62"/>
+      <c r="CG33" s="62"/>
+      <c r="CH33" s="62"/>
+      <c r="CI33" s="62"/>
+      <c r="CJ33" s="62"/>
+      <c r="CK33" s="62"/>
+      <c r="CL33" s="62"/>
+      <c r="CM33" s="62"/>
+      <c r="CN33" s="62"/>
+      <c r="CO33" s="62"/>
+      <c r="CP33" s="62"/>
+      <c r="CQ33" s="62"/>
+      <c r="CR33" s="62"/>
+      <c r="CS33" s="62"/>
+      <c r="CT33" s="62"/>
+      <c r="CU33" s="62"/>
+      <c r="CV33" s="62"/>
+      <c r="CW33" s="62"/>
+      <c r="CX33" s="62"/>
+      <c r="CY33" s="62"/>
       <c r="CZ33" s="2"/>
       <c r="DA33" s="2"/>
       <c r="DB33" s="2"/>
@@ -64207,68 +64210,68 @@
       <c r="DI33" s="2"/>
       <c r="DJ33" s="2"/>
       <c r="DK33" s="2"/>
-      <c r="DN33" s="61" t="s">
+      <c r="DN33" s="62" t="s">
         <v>375</v>
       </c>
-      <c r="DO33" s="61"/>
-      <c r="DP33" s="61"/>
-      <c r="DQ33" s="61"/>
-      <c r="DR33" s="61"/>
-      <c r="DS33" s="61"/>
-      <c r="DT33" s="61"/>
-      <c r="DU33" s="61"/>
-      <c r="DV33" s="61"/>
-      <c r="DW33" s="61"/>
-      <c r="DX33" s="61"/>
-      <c r="DY33" s="61"/>
-      <c r="DZ33" s="61"/>
-      <c r="EA33" s="61"/>
-      <c r="EB33" s="61"/>
-      <c r="EC33" s="61"/>
-      <c r="ED33" s="61"/>
-      <c r="EE33" s="61"/>
-      <c r="EF33" s="61"/>
-      <c r="EG33" s="61"/>
-      <c r="EH33" s="61"/>
-      <c r="EI33" s="61"/>
-      <c r="EJ33" s="61"/>
-      <c r="EK33" s="61"/>
-      <c r="EL33" s="61"/>
-      <c r="EM33" s="61"/>
-      <c r="EN33" s="61"/>
-      <c r="EO33" s="61"/>
-      <c r="EP33" s="61"/>
+      <c r="DO33" s="62"/>
+      <c r="DP33" s="62"/>
+      <c r="DQ33" s="62"/>
+      <c r="DR33" s="62"/>
+      <c r="DS33" s="62"/>
+      <c r="DT33" s="62"/>
+      <c r="DU33" s="62"/>
+      <c r="DV33" s="62"/>
+      <c r="DW33" s="62"/>
+      <c r="DX33" s="62"/>
+      <c r="DY33" s="62"/>
+      <c r="DZ33" s="62"/>
+      <c r="EA33" s="62"/>
+      <c r="EB33" s="62"/>
+      <c r="EC33" s="62"/>
+      <c r="ED33" s="62"/>
+      <c r="EE33" s="62"/>
+      <c r="EF33" s="62"/>
+      <c r="EG33" s="62"/>
+      <c r="EH33" s="62"/>
+      <c r="EI33" s="62"/>
+      <c r="EJ33" s="62"/>
+      <c r="EK33" s="62"/>
+      <c r="EL33" s="62"/>
+      <c r="EM33" s="62"/>
+      <c r="EN33" s="62"/>
+      <c r="EO33" s="62"/>
+      <c r="EP33" s="62"/>
       <c r="EU33" s="2"/>
       <c r="EV33" s="2"/>
       <c r="EW33" s="2"/>
       <c r="EX33" s="2"/>
       <c r="EY33" s="2"/>
-      <c r="FA33" s="61" t="s">
+      <c r="FA33" s="62" t="s">
         <v>376</v>
       </c>
-      <c r="FB33" s="61"/>
-      <c r="FC33" s="61"/>
-      <c r="FD33" s="61"/>
-      <c r="FE33" s="61"/>
-      <c r="FF33" s="61"/>
-      <c r="FG33" s="61"/>
-      <c r="FH33" s="61"/>
-      <c r="FI33" s="61"/>
-      <c r="FJ33" s="61"/>
-      <c r="FK33" s="61"/>
-      <c r="FL33" s="61"/>
-      <c r="FM33" s="61"/>
-      <c r="FN33" s="61"/>
-      <c r="FO33" s="61"/>
-      <c r="FP33" s="61"/>
-      <c r="FQ33" s="61"/>
-      <c r="FR33" s="61"/>
-      <c r="FS33" s="61"/>
-      <c r="FT33" s="61"/>
-      <c r="FU33" s="61"/>
-      <c r="FV33" s="61"/>
-      <c r="FW33" s="61"/>
-      <c r="FX33" s="61"/>
+      <c r="FB33" s="62"/>
+      <c r="FC33" s="62"/>
+      <c r="FD33" s="62"/>
+      <c r="FE33" s="62"/>
+      <c r="FF33" s="62"/>
+      <c r="FG33" s="62"/>
+      <c r="FH33" s="62"/>
+      <c r="FI33" s="62"/>
+      <c r="FJ33" s="62"/>
+      <c r="FK33" s="62"/>
+      <c r="FL33" s="62"/>
+      <c r="FM33" s="62"/>
+      <c r="FN33" s="62"/>
+      <c r="FO33" s="62"/>
+      <c r="FP33" s="62"/>
+      <c r="FQ33" s="62"/>
+      <c r="FR33" s="62"/>
+      <c r="FS33" s="62"/>
+      <c r="FT33" s="62"/>
+      <c r="FU33" s="62"/>
+      <c r="FV33" s="62"/>
+      <c r="FW33" s="62"/>
+      <c r="FX33" s="62"/>
       <c r="GO33" s="2"/>
       <c r="GP33" s="2"/>
       <c r="GQ33" s="2"/>
@@ -64285,40 +64288,40 @@
       <c r="HB33" s="2"/>
       <c r="HC33" s="2"/>
       <c r="HD33" s="2"/>
-      <c r="HH33" s="61" t="s">
+      <c r="HH33" s="62" t="s">
         <v>377</v>
       </c>
-      <c r="HI33" s="61"/>
-      <c r="HJ33" s="61"/>
-      <c r="HK33" s="61"/>
-      <c r="HL33" s="61"/>
-      <c r="HM33" s="61"/>
-      <c r="HN33" s="61"/>
-      <c r="HO33" s="61"/>
-      <c r="HP33" s="61"/>
-      <c r="HQ33" s="61"/>
-      <c r="HR33" s="61"/>
-      <c r="HS33" s="61"/>
-      <c r="HT33" s="61"/>
-      <c r="HU33" s="61"/>
-      <c r="HV33" s="61"/>
-      <c r="HW33" s="61"/>
-      <c r="HX33" s="61"/>
-      <c r="HY33" s="61"/>
-      <c r="HZ33" s="61"/>
-      <c r="IA33" s="61"/>
-      <c r="IB33" s="61"/>
-      <c r="IC33" s="61"/>
-      <c r="ID33" s="61"/>
-      <c r="IE33" s="61"/>
-      <c r="IF33" s="61"/>
-      <c r="IG33" s="61"/>
-      <c r="IH33" s="61"/>
-      <c r="II33" s="61"/>
-      <c r="IJ33" s="61"/>
-      <c r="IK33" s="61"/>
-      <c r="IL33" s="61"/>
-      <c r="IM33" s="61"/>
+      <c r="HI33" s="62"/>
+      <c r="HJ33" s="62"/>
+      <c r="HK33" s="62"/>
+      <c r="HL33" s="62"/>
+      <c r="HM33" s="62"/>
+      <c r="HN33" s="62"/>
+      <c r="HO33" s="62"/>
+      <c r="HP33" s="62"/>
+      <c r="HQ33" s="62"/>
+      <c r="HR33" s="62"/>
+      <c r="HS33" s="62"/>
+      <c r="HT33" s="62"/>
+      <c r="HU33" s="62"/>
+      <c r="HV33" s="62"/>
+      <c r="HW33" s="62"/>
+      <c r="HX33" s="62"/>
+      <c r="HY33" s="62"/>
+      <c r="HZ33" s="62"/>
+      <c r="IA33" s="62"/>
+      <c r="IB33" s="62"/>
+      <c r="IC33" s="62"/>
+      <c r="ID33" s="62"/>
+      <c r="IE33" s="62"/>
+      <c r="IF33" s="62"/>
+      <c r="IG33" s="62"/>
+      <c r="IH33" s="62"/>
+      <c r="II33" s="62"/>
+      <c r="IJ33" s="62"/>
+      <c r="IK33" s="62"/>
+      <c r="IL33" s="62"/>
+      <c r="IM33" s="62"/>
       <c r="IQ33" s="2"/>
       <c r="IR33" s="2"/>
       <c r="IS33" s="2"/>
@@ -64335,57 +64338,57 @@
       <c r="JD33" s="2"/>
       <c r="JE33" s="2"/>
       <c r="JF33" s="2"/>
-      <c r="JM33" s="61" t="s">
+      <c r="JM33" s="62" t="s">
         <v>378</v>
       </c>
-      <c r="JN33" s="61"/>
-      <c r="JO33" s="61"/>
-      <c r="JP33" s="61"/>
-      <c r="JQ33" s="61"/>
-      <c r="JR33" s="61"/>
-      <c r="JS33" s="61"/>
-      <c r="JT33" s="61"/>
-      <c r="JU33" s="61"/>
-      <c r="JV33" s="61"/>
-      <c r="JW33" s="61"/>
-      <c r="JX33" s="61"/>
-      <c r="JY33" s="61"/>
-      <c r="JZ33" s="61"/>
-      <c r="KA33" s="61"/>
-      <c r="KB33" s="61"/>
-      <c r="KC33" s="61"/>
-      <c r="KD33" s="61"/>
-      <c r="KE33" s="61"/>
-      <c r="KF33" s="61"/>
-      <c r="KG33" s="61"/>
-      <c r="KH33" s="61"/>
-      <c r="KI33" s="61"/>
-      <c r="KJ33" s="61"/>
-      <c r="KK33" s="61"/>
-      <c r="KT33" s="61" t="s">
+      <c r="JN33" s="62"/>
+      <c r="JO33" s="62"/>
+      <c r="JP33" s="62"/>
+      <c r="JQ33" s="62"/>
+      <c r="JR33" s="62"/>
+      <c r="JS33" s="62"/>
+      <c r="JT33" s="62"/>
+      <c r="JU33" s="62"/>
+      <c r="JV33" s="62"/>
+      <c r="JW33" s="62"/>
+      <c r="JX33" s="62"/>
+      <c r="JY33" s="62"/>
+      <c r="JZ33" s="62"/>
+      <c r="KA33" s="62"/>
+      <c r="KB33" s="62"/>
+      <c r="KC33" s="62"/>
+      <c r="KD33" s="62"/>
+      <c r="KE33" s="62"/>
+      <c r="KF33" s="62"/>
+      <c r="KG33" s="62"/>
+      <c r="KH33" s="62"/>
+      <c r="KI33" s="62"/>
+      <c r="KJ33" s="62"/>
+      <c r="KK33" s="62"/>
+      <c r="KT33" s="62" t="s">
         <v>379</v>
       </c>
-      <c r="KU33" s="61"/>
-      <c r="KV33" s="61"/>
-      <c r="KW33" s="61"/>
-      <c r="KX33" s="61"/>
-      <c r="KY33" s="61"/>
-      <c r="KZ33" s="61"/>
-      <c r="LA33" s="61"/>
-      <c r="LB33" s="61"/>
-      <c r="LC33" s="61"/>
-      <c r="LD33" s="61"/>
-      <c r="LE33" s="61"/>
-      <c r="LF33" s="61"/>
-      <c r="LG33" s="61"/>
-      <c r="LH33" s="61"/>
-      <c r="LI33" s="61"/>
-      <c r="LJ33" s="61"/>
-      <c r="LK33" s="61"/>
-      <c r="LL33" s="61"/>
-      <c r="LM33" s="61"/>
-      <c r="LN33" s="61"/>
-      <c r="LO33" s="61"/>
+      <c r="KU33" s="62"/>
+      <c r="KV33" s="62"/>
+      <c r="KW33" s="62"/>
+      <c r="KX33" s="62"/>
+      <c r="KY33" s="62"/>
+      <c r="KZ33" s="62"/>
+      <c r="LA33" s="62"/>
+      <c r="LB33" s="62"/>
+      <c r="LC33" s="62"/>
+      <c r="LD33" s="62"/>
+      <c r="LE33" s="62"/>
+      <c r="LF33" s="62"/>
+      <c r="LG33" s="62"/>
+      <c r="LH33" s="62"/>
+      <c r="LI33" s="62"/>
+      <c r="LJ33" s="62"/>
+      <c r="LK33" s="62"/>
+      <c r="LL33" s="62"/>
+      <c r="LM33" s="62"/>
+      <c r="LN33" s="62"/>
+      <c r="LO33" s="62"/>
       <c r="LP33" s="2"/>
       <c r="LQ33" s="2"/>
       <c r="LR33" s="2"/>
@@ -64425,580 +64428,580 @@
       <c r="MZ33" s="2"/>
       <c r="NA33" s="2"/>
     </row>
-    <row r="34" spans="1:365" ht="26.7" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:365" ht="26.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="40" t="s">
         <v>380</v>
       </c>
-      <c r="AK34" s="62" t="s">
+      <c r="AK34" s="63" t="s">
         <v>373</v>
       </c>
-      <c r="AL34" s="62"/>
-      <c r="AM34" s="62"/>
-      <c r="AN34" s="62"/>
-      <c r="AO34" s="62"/>
-      <c r="AP34" s="62"/>
-      <c r="AQ34" s="62"/>
-      <c r="AR34" s="62"/>
-      <c r="AS34" s="62"/>
-      <c r="AT34" s="62"/>
-      <c r="AU34" s="62"/>
-      <c r="AV34" s="62"/>
-      <c r="AW34" s="62"/>
-      <c r="AX34" s="62"/>
-      <c r="AY34" s="62"/>
-      <c r="AZ34" s="62"/>
-      <c r="BA34" s="62"/>
-      <c r="BB34" s="62"/>
-      <c r="BC34" s="62"/>
-      <c r="BD34" s="62"/>
-      <c r="BE34" s="62"/>
-      <c r="BF34" s="62"/>
-      <c r="BG34" s="62"/>
-      <c r="BH34" s="62"/>
-      <c r="BI34" s="62"/>
-      <c r="BJ34" s="62"/>
-      <c r="BK34" s="62"/>
-      <c r="BL34" s="62"/>
-      <c r="BM34" s="62"/>
-      <c r="BN34" s="62"/>
-      <c r="BW34" s="62" t="s">
+      <c r="AL34" s="63"/>
+      <c r="AM34" s="63"/>
+      <c r="AN34" s="63"/>
+      <c r="AO34" s="63"/>
+      <c r="AP34" s="63"/>
+      <c r="AQ34" s="63"/>
+      <c r="AR34" s="63"/>
+      <c r="AS34" s="63"/>
+      <c r="AT34" s="63"/>
+      <c r="AU34" s="63"/>
+      <c r="AV34" s="63"/>
+      <c r="AW34" s="63"/>
+      <c r="AX34" s="63"/>
+      <c r="AY34" s="63"/>
+      <c r="AZ34" s="63"/>
+      <c r="BA34" s="63"/>
+      <c r="BB34" s="63"/>
+      <c r="BC34" s="63"/>
+      <c r="BD34" s="63"/>
+      <c r="BE34" s="63"/>
+      <c r="BF34" s="63"/>
+      <c r="BG34" s="63"/>
+      <c r="BH34" s="63"/>
+      <c r="BI34" s="63"/>
+      <c r="BJ34" s="63"/>
+      <c r="BK34" s="63"/>
+      <c r="BL34" s="63"/>
+      <c r="BM34" s="63"/>
+      <c r="BN34" s="63"/>
+      <c r="BW34" s="63" t="s">
         <v>374</v>
       </c>
-      <c r="BX34" s="62" t="s">
+      <c r="BX34" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="BY34" s="62" t="s">
+      <c r="BY34" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="BZ34" s="62" t="s">
+      <c r="BZ34" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="CA34" s="62" t="s">
+      <c r="CA34" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="CB34" s="62" t="s">
+      <c r="CB34" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="CC34" s="62" t="s">
+      <c r="CC34" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="CD34" s="62" t="s">
+      <c r="CD34" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="CE34" s="62" t="s">
+      <c r="CE34" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="CF34" s="62" t="s">
+      <c r="CF34" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="CG34" s="62" t="s">
+      <c r="CG34" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="CH34" s="62" t="s">
+      <c r="CH34" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="CI34" s="62" t="s">
+      <c r="CI34" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="CJ34" s="62" t="s">
+      <c r="CJ34" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="CK34" s="62" t="s">
+      <c r="CK34" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="CL34" s="62" t="s">
+      <c r="CL34" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="CM34" s="62" t="s">
+      <c r="CM34" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="CN34" s="62" t="s">
+      <c r="CN34" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="CO34" s="62" t="s">
+      <c r="CO34" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="CP34" s="62" t="s">
+      <c r="CP34" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="CQ34" s="62" t="s">
+      <c r="CQ34" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="CR34" s="62" t="s">
+      <c r="CR34" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="CS34" s="62" t="s">
+      <c r="CS34" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="CT34" s="62" t="s">
+      <c r="CT34" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="CU34" s="62" t="s">
+      <c r="CU34" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="CV34" s="62" t="s">
+      <c r="CV34" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="CW34" s="62" t="s">
+      <c r="CW34" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="CX34" s="62" t="s">
+      <c r="CX34" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="CY34" s="62" t="s">
+      <c r="CY34" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="DJ34" s="62" t="s">
+      <c r="DJ34" s="63" t="s">
         <v>375</v>
       </c>
-      <c r="DK34" s="62"/>
-      <c r="DL34" s="62"/>
-      <c r="DM34" s="62"/>
-      <c r="DN34" s="62"/>
-      <c r="DO34" s="62"/>
-      <c r="DP34" s="62"/>
-      <c r="DQ34" s="62"/>
-      <c r="DR34" s="62"/>
-      <c r="DS34" s="62"/>
-      <c r="DT34" s="62"/>
-      <c r="DU34" s="62"/>
-      <c r="DV34" s="62"/>
-      <c r="DW34" s="62"/>
-      <c r="DX34" s="62"/>
-      <c r="DY34" s="62"/>
-      <c r="DZ34" s="62"/>
-      <c r="EA34" s="62"/>
-      <c r="EB34" s="62"/>
-      <c r="EC34" s="62"/>
-      <c r="ED34" s="62"/>
-      <c r="EE34" s="62"/>
-      <c r="EF34" s="62"/>
-      <c r="EG34" s="62"/>
-      <c r="EH34" s="62"/>
-      <c r="EI34" s="62"/>
-      <c r="EJ34" s="62"/>
-      <c r="EK34" s="62"/>
-      <c r="EL34" s="62"/>
-      <c r="EM34" s="62"/>
-      <c r="EN34" s="62"/>
-      <c r="EO34" s="62"/>
-      <c r="EP34" s="62"/>
-      <c r="EQ34" s="62"/>
-      <c r="ER34" s="62"/>
-      <c r="ES34" s="62"/>
-      <c r="FA34" s="62" t="s">
+      <c r="DK34" s="63"/>
+      <c r="DL34" s="63"/>
+      <c r="DM34" s="63"/>
+      <c r="DN34" s="63"/>
+      <c r="DO34" s="63"/>
+      <c r="DP34" s="63"/>
+      <c r="DQ34" s="63"/>
+      <c r="DR34" s="63"/>
+      <c r="DS34" s="63"/>
+      <c r="DT34" s="63"/>
+      <c r="DU34" s="63"/>
+      <c r="DV34" s="63"/>
+      <c r="DW34" s="63"/>
+      <c r="DX34" s="63"/>
+      <c r="DY34" s="63"/>
+      <c r="DZ34" s="63"/>
+      <c r="EA34" s="63"/>
+      <c r="EB34" s="63"/>
+      <c r="EC34" s="63"/>
+      <c r="ED34" s="63"/>
+      <c r="EE34" s="63"/>
+      <c r="EF34" s="63"/>
+      <c r="EG34" s="63"/>
+      <c r="EH34" s="63"/>
+      <c r="EI34" s="63"/>
+      <c r="EJ34" s="63"/>
+      <c r="EK34" s="63"/>
+      <c r="EL34" s="63"/>
+      <c r="EM34" s="63"/>
+      <c r="EN34" s="63"/>
+      <c r="EO34" s="63"/>
+      <c r="EP34" s="63"/>
+      <c r="EQ34" s="63"/>
+      <c r="ER34" s="63"/>
+      <c r="ES34" s="63"/>
+      <c r="FA34" s="63" t="s">
         <v>376</v>
       </c>
-      <c r="FB34" s="62"/>
-      <c r="FC34" s="62"/>
-      <c r="FD34" s="62"/>
-      <c r="FE34" s="62"/>
-      <c r="FF34" s="62"/>
-      <c r="FG34" s="62"/>
-      <c r="FH34" s="62"/>
-      <c r="FI34" s="62"/>
-      <c r="FJ34" s="62"/>
-      <c r="FK34" s="62"/>
-      <c r="FL34" s="62"/>
-      <c r="FM34" s="62"/>
-      <c r="FN34" s="62"/>
-      <c r="FO34" s="62"/>
-      <c r="FP34" s="62"/>
-      <c r="FQ34" s="62"/>
-      <c r="FR34" s="62"/>
-      <c r="FS34" s="62"/>
-      <c r="FT34" s="62"/>
-      <c r="FU34" s="62"/>
-      <c r="FV34" s="62"/>
-      <c r="FW34" s="62"/>
-      <c r="FX34" s="62"/>
-      <c r="HK34" s="62" t="s">
+      <c r="FB34" s="63"/>
+      <c r="FC34" s="63"/>
+      <c r="FD34" s="63"/>
+      <c r="FE34" s="63"/>
+      <c r="FF34" s="63"/>
+      <c r="FG34" s="63"/>
+      <c r="FH34" s="63"/>
+      <c r="FI34" s="63"/>
+      <c r="FJ34" s="63"/>
+      <c r="FK34" s="63"/>
+      <c r="FL34" s="63"/>
+      <c r="FM34" s="63"/>
+      <c r="FN34" s="63"/>
+      <c r="FO34" s="63"/>
+      <c r="FP34" s="63"/>
+      <c r="FQ34" s="63"/>
+      <c r="FR34" s="63"/>
+      <c r="FS34" s="63"/>
+      <c r="FT34" s="63"/>
+      <c r="FU34" s="63"/>
+      <c r="FV34" s="63"/>
+      <c r="FW34" s="63"/>
+      <c r="FX34" s="63"/>
+      <c r="HK34" s="63" t="s">
         <v>377</v>
       </c>
-      <c r="HL34" s="62"/>
-      <c r="HM34" s="62"/>
-      <c r="HN34" s="62"/>
-      <c r="HO34" s="62"/>
-      <c r="HP34" s="62"/>
-      <c r="HQ34" s="62"/>
-      <c r="HR34" s="62"/>
-      <c r="HS34" s="62"/>
-      <c r="HT34" s="62"/>
-      <c r="HU34" s="62"/>
-      <c r="HV34" s="62"/>
-      <c r="HW34" s="62"/>
-      <c r="HX34" s="62"/>
-      <c r="HY34" s="62"/>
-      <c r="HZ34" s="62"/>
-      <c r="IA34" s="62"/>
-      <c r="IB34" s="62"/>
-      <c r="IC34" s="62"/>
-      <c r="ID34" s="62"/>
-      <c r="IE34" s="62"/>
-      <c r="IF34" s="62"/>
-      <c r="IG34" s="62"/>
-      <c r="IH34" s="62"/>
-      <c r="II34" s="62"/>
-      <c r="IJ34" s="62"/>
-      <c r="IK34" s="62"/>
-      <c r="IL34" s="62"/>
-      <c r="IM34" s="62"/>
-      <c r="IN34" s="62"/>
-      <c r="IO34" s="62"/>
-      <c r="IP34" s="62"/>
-      <c r="IQ34" s="62"/>
-      <c r="JG34" s="62" t="s">
+      <c r="HL34" s="63"/>
+      <c r="HM34" s="63"/>
+      <c r="HN34" s="63"/>
+      <c r="HO34" s="63"/>
+      <c r="HP34" s="63"/>
+      <c r="HQ34" s="63"/>
+      <c r="HR34" s="63"/>
+      <c r="HS34" s="63"/>
+      <c r="HT34" s="63"/>
+      <c r="HU34" s="63"/>
+      <c r="HV34" s="63"/>
+      <c r="HW34" s="63"/>
+      <c r="HX34" s="63"/>
+      <c r="HY34" s="63"/>
+      <c r="HZ34" s="63"/>
+      <c r="IA34" s="63"/>
+      <c r="IB34" s="63"/>
+      <c r="IC34" s="63"/>
+      <c r="ID34" s="63"/>
+      <c r="IE34" s="63"/>
+      <c r="IF34" s="63"/>
+      <c r="IG34" s="63"/>
+      <c r="IH34" s="63"/>
+      <c r="II34" s="63"/>
+      <c r="IJ34" s="63"/>
+      <c r="IK34" s="63"/>
+      <c r="IL34" s="63"/>
+      <c r="IM34" s="63"/>
+      <c r="IN34" s="63"/>
+      <c r="IO34" s="63"/>
+      <c r="IP34" s="63"/>
+      <c r="IQ34" s="63"/>
+      <c r="JG34" s="63" t="s">
         <v>378</v>
       </c>
-      <c r="JH34" s="62"/>
-      <c r="JI34" s="62"/>
-      <c r="JJ34" s="62"/>
-      <c r="JK34" s="62"/>
-      <c r="JL34" s="62"/>
-      <c r="JM34" s="62"/>
-      <c r="JN34" s="62"/>
-      <c r="JO34" s="62"/>
-      <c r="JP34" s="62"/>
-      <c r="JQ34" s="62"/>
-      <c r="JR34" s="62"/>
-      <c r="JS34" s="62"/>
-      <c r="JT34" s="62"/>
-      <c r="JU34" s="62"/>
-      <c r="JV34" s="62"/>
-      <c r="JW34" s="62"/>
-      <c r="JX34" s="62"/>
-      <c r="JY34" s="62"/>
-      <c r="JZ34" s="62"/>
-      <c r="KA34" s="62"/>
-      <c r="KB34" s="62"/>
-      <c r="KC34" s="62"/>
-      <c r="KD34" s="62"/>
-      <c r="KE34" s="62"/>
-      <c r="KF34" s="62"/>
-      <c r="KG34" s="62"/>
-      <c r="KH34" s="62"/>
-      <c r="KI34" s="62"/>
-      <c r="KJ34" s="62"/>
-      <c r="KK34" s="62"/>
-      <c r="KL34" s="62"/>
-      <c r="KM34" s="62"/>
-      <c r="KQ34" s="62" t="s">
+      <c r="JH34" s="63"/>
+      <c r="JI34" s="63"/>
+      <c r="JJ34" s="63"/>
+      <c r="JK34" s="63"/>
+      <c r="JL34" s="63"/>
+      <c r="JM34" s="63"/>
+      <c r="JN34" s="63"/>
+      <c r="JO34" s="63"/>
+      <c r="JP34" s="63"/>
+      <c r="JQ34" s="63"/>
+      <c r="JR34" s="63"/>
+      <c r="JS34" s="63"/>
+      <c r="JT34" s="63"/>
+      <c r="JU34" s="63"/>
+      <c r="JV34" s="63"/>
+      <c r="JW34" s="63"/>
+      <c r="JX34" s="63"/>
+      <c r="JY34" s="63"/>
+      <c r="JZ34" s="63"/>
+      <c r="KA34" s="63"/>
+      <c r="KB34" s="63"/>
+      <c r="KC34" s="63"/>
+      <c r="KD34" s="63"/>
+      <c r="KE34" s="63"/>
+      <c r="KF34" s="63"/>
+      <c r="KG34" s="63"/>
+      <c r="KH34" s="63"/>
+      <c r="KI34" s="63"/>
+      <c r="KJ34" s="63"/>
+      <c r="KK34" s="63"/>
+      <c r="KL34" s="63"/>
+      <c r="KM34" s="63"/>
+      <c r="KQ34" s="63" t="s">
         <v>379</v>
       </c>
-      <c r="KR34" s="62"/>
-      <c r="KS34" s="62"/>
-      <c r="KT34" s="62"/>
-      <c r="KU34" s="62"/>
-      <c r="KV34" s="62"/>
-      <c r="KW34" s="62"/>
-      <c r="KX34" s="62"/>
-      <c r="KY34" s="62"/>
-      <c r="KZ34" s="62"/>
-      <c r="LA34" s="62"/>
-      <c r="LB34" s="62"/>
-      <c r="LC34" s="62"/>
-      <c r="LD34" s="62"/>
-      <c r="LE34" s="62"/>
-      <c r="LF34" s="62"/>
-      <c r="LG34" s="62"/>
-      <c r="LH34" s="62"/>
-      <c r="LI34" s="62"/>
-      <c r="LJ34" s="62"/>
-      <c r="LK34" s="62"/>
-      <c r="LL34" s="62"/>
-      <c r="LM34" s="62"/>
+      <c r="KR34" s="63"/>
+      <c r="KS34" s="63"/>
+      <c r="KT34" s="63"/>
+      <c r="KU34" s="63"/>
+      <c r="KV34" s="63"/>
+      <c r="KW34" s="63"/>
+      <c r="KX34" s="63"/>
+      <c r="KY34" s="63"/>
+      <c r="KZ34" s="63"/>
+      <c r="LA34" s="63"/>
+      <c r="LB34" s="63"/>
+      <c r="LC34" s="63"/>
+      <c r="LD34" s="63"/>
+      <c r="LE34" s="63"/>
+      <c r="LF34" s="63"/>
+      <c r="LG34" s="63"/>
+      <c r="LH34" s="63"/>
+      <c r="LI34" s="63"/>
+      <c r="LJ34" s="63"/>
+      <c r="LK34" s="63"/>
+      <c r="LL34" s="63"/>
+      <c r="LM34" s="63"/>
     </row>
-    <row r="35" spans="1:365" ht="26.7" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:365" ht="26.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="41" t="s">
         <v>381</v>
       </c>
-      <c r="AM35" s="60" t="s">
+      <c r="AM35" s="61" t="s">
         <v>373</v>
       </c>
-      <c r="AN35" s="60"/>
-      <c r="AO35" s="60"/>
-      <c r="AP35" s="60"/>
-      <c r="AQ35" s="60"/>
-      <c r="AR35" s="60"/>
-      <c r="AS35" s="60"/>
-      <c r="AT35" s="60"/>
-      <c r="AU35" s="60"/>
-      <c r="AV35" s="60"/>
-      <c r="AW35" s="60"/>
-      <c r="AX35" s="60"/>
-      <c r="AY35" s="60"/>
-      <c r="AZ35" s="60"/>
-      <c r="BA35" s="60"/>
-      <c r="BB35" s="60"/>
-      <c r="BC35" s="60"/>
-      <c r="BD35" s="60"/>
-      <c r="BE35" s="60"/>
-      <c r="BF35" s="60"/>
-      <c r="BG35" s="60"/>
-      <c r="BH35" s="60"/>
-      <c r="BI35" s="60"/>
-      <c r="BJ35" s="60"/>
-      <c r="BK35" s="60"/>
-      <c r="BL35" s="60"/>
-      <c r="BM35" s="60"/>
-      <c r="BN35" s="60"/>
-      <c r="BW35" s="60" t="s">
+      <c r="AN35" s="61"/>
+      <c r="AO35" s="61"/>
+      <c r="AP35" s="61"/>
+      <c r="AQ35" s="61"/>
+      <c r="AR35" s="61"/>
+      <c r="AS35" s="61"/>
+      <c r="AT35" s="61"/>
+      <c r="AU35" s="61"/>
+      <c r="AV35" s="61"/>
+      <c r="AW35" s="61"/>
+      <c r="AX35" s="61"/>
+      <c r="AY35" s="61"/>
+      <c r="AZ35" s="61"/>
+      <c r="BA35" s="61"/>
+      <c r="BB35" s="61"/>
+      <c r="BC35" s="61"/>
+      <c r="BD35" s="61"/>
+      <c r="BE35" s="61"/>
+      <c r="BF35" s="61"/>
+      <c r="BG35" s="61"/>
+      <c r="BH35" s="61"/>
+      <c r="BI35" s="61"/>
+      <c r="BJ35" s="61"/>
+      <c r="BK35" s="61"/>
+      <c r="BL35" s="61"/>
+      <c r="BM35" s="61"/>
+      <c r="BN35" s="61"/>
+      <c r="BW35" s="61" t="s">
         <v>374</v>
       </c>
-      <c r="BX35" s="60" t="s">
+      <c r="BX35" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="BY35" s="60" t="s">
+      <c r="BY35" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="BZ35" s="60" t="s">
+      <c r="BZ35" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="CA35" s="60" t="s">
+      <c r="CA35" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="CB35" s="60" t="s">
+      <c r="CB35" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="CC35" s="60" t="s">
+      <c r="CC35" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="CD35" s="60" t="s">
+      <c r="CD35" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="CE35" s="60" t="s">
+      <c r="CE35" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="CF35" s="60" t="s">
+      <c r="CF35" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="CG35" s="60" t="s">
+      <c r="CG35" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="CH35" s="60" t="s">
+      <c r="CH35" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="CI35" s="60" t="s">
+      <c r="CI35" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="CJ35" s="60" t="s">
+      <c r="CJ35" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="CK35" s="60" t="s">
+      <c r="CK35" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="CL35" s="60" t="s">
+      <c r="CL35" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="CM35" s="60" t="s">
+      <c r="CM35" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="CN35" s="60" t="s">
+      <c r="CN35" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="CO35" s="60" t="s">
+      <c r="CO35" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="CP35" s="60" t="s">
+      <c r="CP35" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="CQ35" s="60" t="s">
+      <c r="CQ35" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="CR35" s="60" t="s">
+      <c r="CR35" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="CS35" s="60" t="s">
+      <c r="CS35" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="CT35" s="60" t="s">
+      <c r="CT35" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="CU35" s="60" t="s">
+      <c r="CU35" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="CV35" s="60" t="s">
+      <c r="CV35" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="CW35" s="60" t="s">
+      <c r="CW35" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="CX35" s="60" t="s">
+      <c r="CX35" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="DK35" s="60" t="s">
+      <c r="DK35" s="61" t="s">
         <v>375</v>
       </c>
-      <c r="DL35" s="60"/>
-      <c r="DM35" s="60"/>
-      <c r="DN35" s="60"/>
-      <c r="DO35" s="60"/>
-      <c r="DP35" s="60"/>
-      <c r="DQ35" s="60"/>
-      <c r="DR35" s="60"/>
-      <c r="DS35" s="60"/>
-      <c r="DT35" s="60"/>
-      <c r="DU35" s="60"/>
-      <c r="DV35" s="60"/>
-      <c r="DW35" s="60"/>
-      <c r="DX35" s="60"/>
-      <c r="DY35" s="60"/>
-      <c r="DZ35" s="60"/>
-      <c r="EA35" s="60"/>
-      <c r="EB35" s="60"/>
-      <c r="EC35" s="60"/>
-      <c r="ED35" s="60"/>
-      <c r="EE35" s="60"/>
-      <c r="EF35" s="60"/>
-      <c r="EG35" s="60"/>
-      <c r="EH35" s="60"/>
-      <c r="EI35" s="60"/>
-      <c r="EJ35" s="60"/>
-      <c r="EK35" s="60"/>
-      <c r="EL35" s="60"/>
-      <c r="EM35" s="60"/>
-      <c r="EN35" s="60"/>
-      <c r="EO35" s="60"/>
-      <c r="EP35" s="60"/>
-      <c r="EQ35" s="60"/>
-      <c r="ER35" s="60"/>
-      <c r="FC35" s="60" t="s">
+      <c r="DL35" s="61"/>
+      <c r="DM35" s="61"/>
+      <c r="DN35" s="61"/>
+      <c r="DO35" s="61"/>
+      <c r="DP35" s="61"/>
+      <c r="DQ35" s="61"/>
+      <c r="DR35" s="61"/>
+      <c r="DS35" s="61"/>
+      <c r="DT35" s="61"/>
+      <c r="DU35" s="61"/>
+      <c r="DV35" s="61"/>
+      <c r="DW35" s="61"/>
+      <c r="DX35" s="61"/>
+      <c r="DY35" s="61"/>
+      <c r="DZ35" s="61"/>
+      <c r="EA35" s="61"/>
+      <c r="EB35" s="61"/>
+      <c r="EC35" s="61"/>
+      <c r="ED35" s="61"/>
+      <c r="EE35" s="61"/>
+      <c r="EF35" s="61"/>
+      <c r="EG35" s="61"/>
+      <c r="EH35" s="61"/>
+      <c r="EI35" s="61"/>
+      <c r="EJ35" s="61"/>
+      <c r="EK35" s="61"/>
+      <c r="EL35" s="61"/>
+      <c r="EM35" s="61"/>
+      <c r="EN35" s="61"/>
+      <c r="EO35" s="61"/>
+      <c r="EP35" s="61"/>
+      <c r="EQ35" s="61"/>
+      <c r="ER35" s="61"/>
+      <c r="FC35" s="61" t="s">
         <v>376</v>
       </c>
-      <c r="FD35" s="60"/>
-      <c r="FE35" s="60"/>
-      <c r="FF35" s="60"/>
-      <c r="FG35" s="60"/>
-      <c r="FH35" s="60"/>
-      <c r="FI35" s="60"/>
-      <c r="FJ35" s="60"/>
-      <c r="FK35" s="60"/>
-      <c r="FL35" s="60"/>
-      <c r="FM35" s="60"/>
-      <c r="FN35" s="60"/>
-      <c r="FO35" s="60"/>
-      <c r="FP35" s="60"/>
-      <c r="FQ35" s="60"/>
-      <c r="FR35" s="60"/>
-      <c r="FS35" s="60"/>
-      <c r="FT35" s="60"/>
-      <c r="FU35" s="60"/>
-      <c r="FV35" s="60"/>
-      <c r="FW35" s="60"/>
-      <c r="FX35" s="60"/>
-      <c r="HM35" s="60" t="s">
+      <c r="FD35" s="61"/>
+      <c r="FE35" s="61"/>
+      <c r="FF35" s="61"/>
+      <c r="FG35" s="61"/>
+      <c r="FH35" s="61"/>
+      <c r="FI35" s="61"/>
+      <c r="FJ35" s="61"/>
+      <c r="FK35" s="61"/>
+      <c r="FL35" s="61"/>
+      <c r="FM35" s="61"/>
+      <c r="FN35" s="61"/>
+      <c r="FO35" s="61"/>
+      <c r="FP35" s="61"/>
+      <c r="FQ35" s="61"/>
+      <c r="FR35" s="61"/>
+      <c r="FS35" s="61"/>
+      <c r="FT35" s="61"/>
+      <c r="FU35" s="61"/>
+      <c r="FV35" s="61"/>
+      <c r="FW35" s="61"/>
+      <c r="FX35" s="61"/>
+      <c r="HM35" s="61" t="s">
         <v>377</v>
       </c>
-      <c r="HN35" s="60"/>
-      <c r="HO35" s="60"/>
-      <c r="HP35" s="60"/>
-      <c r="HQ35" s="60"/>
-      <c r="HR35" s="60"/>
-      <c r="HS35" s="60"/>
-      <c r="HT35" s="60"/>
-      <c r="HU35" s="60"/>
-      <c r="HV35" s="60"/>
-      <c r="HW35" s="60"/>
-      <c r="HX35" s="60"/>
-      <c r="HY35" s="60"/>
-      <c r="HZ35" s="60"/>
-      <c r="IA35" s="60"/>
-      <c r="IB35" s="60"/>
-      <c r="IC35" s="60"/>
-      <c r="ID35" s="60"/>
-      <c r="IE35" s="60"/>
-      <c r="IF35" s="60"/>
-      <c r="IG35" s="60"/>
-      <c r="IH35" s="60"/>
-      <c r="II35" s="60"/>
-      <c r="IJ35" s="60"/>
-      <c r="IK35" s="60"/>
-      <c r="IL35" s="60"/>
-      <c r="JK35" s="60" t="s">
+      <c r="HN35" s="61"/>
+      <c r="HO35" s="61"/>
+      <c r="HP35" s="61"/>
+      <c r="HQ35" s="61"/>
+      <c r="HR35" s="61"/>
+      <c r="HS35" s="61"/>
+      <c r="HT35" s="61"/>
+      <c r="HU35" s="61"/>
+      <c r="HV35" s="61"/>
+      <c r="HW35" s="61"/>
+      <c r="HX35" s="61"/>
+      <c r="HY35" s="61"/>
+      <c r="HZ35" s="61"/>
+      <c r="IA35" s="61"/>
+      <c r="IB35" s="61"/>
+      <c r="IC35" s="61"/>
+      <c r="ID35" s="61"/>
+      <c r="IE35" s="61"/>
+      <c r="IF35" s="61"/>
+      <c r="IG35" s="61"/>
+      <c r="IH35" s="61"/>
+      <c r="II35" s="61"/>
+      <c r="IJ35" s="61"/>
+      <c r="IK35" s="61"/>
+      <c r="IL35" s="61"/>
+      <c r="JK35" s="61" t="s">
         <v>378</v>
       </c>
-      <c r="JL35" s="60"/>
-      <c r="JM35" s="60"/>
-      <c r="JN35" s="60"/>
-      <c r="JO35" s="60"/>
-      <c r="JP35" s="60"/>
-      <c r="JQ35" s="60"/>
-      <c r="JR35" s="60"/>
-      <c r="JS35" s="60"/>
-      <c r="JT35" s="60"/>
-      <c r="JU35" s="60"/>
-      <c r="JV35" s="60"/>
-      <c r="JW35" s="60"/>
-      <c r="JX35" s="60"/>
-      <c r="JY35" s="60"/>
-      <c r="JZ35" s="60"/>
-      <c r="KA35" s="60"/>
-      <c r="KB35" s="60"/>
-      <c r="KC35" s="60"/>
-      <c r="KD35" s="60"/>
-      <c r="KE35" s="60"/>
-      <c r="KF35" s="60"/>
-      <c r="KG35" s="60"/>
-      <c r="KH35" s="60"/>
-      <c r="KI35" s="60"/>
-      <c r="KJ35" s="60"/>
-      <c r="KK35" s="60"/>
-      <c r="KL35" s="60"/>
-      <c r="KM35" s="60"/>
-      <c r="KR35" s="60" t="s">
+      <c r="JL35" s="61"/>
+      <c r="JM35" s="61"/>
+      <c r="JN35" s="61"/>
+      <c r="JO35" s="61"/>
+      <c r="JP35" s="61"/>
+      <c r="JQ35" s="61"/>
+      <c r="JR35" s="61"/>
+      <c r="JS35" s="61"/>
+      <c r="JT35" s="61"/>
+      <c r="JU35" s="61"/>
+      <c r="JV35" s="61"/>
+      <c r="JW35" s="61"/>
+      <c r="JX35" s="61"/>
+      <c r="JY35" s="61"/>
+      <c r="JZ35" s="61"/>
+      <c r="KA35" s="61"/>
+      <c r="KB35" s="61"/>
+      <c r="KC35" s="61"/>
+      <c r="KD35" s="61"/>
+      <c r="KE35" s="61"/>
+      <c r="KF35" s="61"/>
+      <c r="KG35" s="61"/>
+      <c r="KH35" s="61"/>
+      <c r="KI35" s="61"/>
+      <c r="KJ35" s="61"/>
+      <c r="KK35" s="61"/>
+      <c r="KL35" s="61"/>
+      <c r="KM35" s="61"/>
+      <c r="KR35" s="61" t="s">
         <v>379</v>
       </c>
-      <c r="KS35" s="60"/>
-      <c r="KT35" s="60"/>
-      <c r="KU35" s="60"/>
-      <c r="KV35" s="60"/>
-      <c r="KW35" s="60"/>
-      <c r="KX35" s="60"/>
-      <c r="KY35" s="60"/>
-      <c r="KZ35" s="60"/>
-      <c r="LA35" s="60"/>
-      <c r="LB35" s="60"/>
-      <c r="LC35" s="60"/>
-      <c r="LD35" s="60"/>
-      <c r="LE35" s="60"/>
-      <c r="LF35" s="60"/>
-      <c r="LG35" s="60"/>
-      <c r="LH35" s="60"/>
-      <c r="LI35" s="60"/>
-      <c r="LJ35" s="60"/>
-      <c r="LK35" s="60"/>
+      <c r="KS35" s="61"/>
+      <c r="KT35" s="61"/>
+      <c r="KU35" s="61"/>
+      <c r="KV35" s="61"/>
+      <c r="KW35" s="61"/>
+      <c r="KX35" s="61"/>
+      <c r="KY35" s="61"/>
+      <c r="KZ35" s="61"/>
+      <c r="LA35" s="61"/>
+      <c r="LB35" s="61"/>
+      <c r="LC35" s="61"/>
+      <c r="LD35" s="61"/>
+      <c r="LE35" s="61"/>
+      <c r="LF35" s="61"/>
+      <c r="LG35" s="61"/>
+      <c r="LH35" s="61"/>
+      <c r="LI35" s="61"/>
+      <c r="LJ35" s="61"/>
+      <c r="LK35" s="61"/>
     </row>
-    <row r="37" spans="1:365" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:365" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="38" spans="1:365" ht="28.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:365" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="42" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="39" spans="1:365" ht="28.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:365" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="43" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="40" spans="1:365" ht="28.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:365" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="44" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="41" spans="1:365" ht="28.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:365" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="45" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="42" spans="1:365" ht="28.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:365" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="46" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="43" spans="1:365" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:365" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="47" t="s">
         <v>388</v>
       </c>
@@ -65035,25 +65038,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.76953125" style="48" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" style="48" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="1025" width="10.6796875" customWidth="1"/>
+    <col min="3" max="1025" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="1">
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="57" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="48" t="s">
         <v>3</v>
       </c>
@@ -65061,7 +65064,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
         <v>28</v>
       </c>
@@ -65069,27 +65072,27 @@
         <v>390</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="48" t="s">
         <v>32</v>
       </c>
@@ -65097,12 +65100,12 @@
         <v>395</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="48" t="s">
         <v>36</v>
       </c>
@@ -65110,7 +65113,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="48" t="s">
         <v>38</v>
       </c>
@@ -65118,7 +65121,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="48" t="s">
         <v>42</v>
       </c>
@@ -65126,17 +65129,17 @@
         <v>398</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="48" t="s">
         <v>44</v>
       </c>
@@ -65144,22 +65147,22 @@
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="48" t="s">
         <v>48</v>
       </c>
@@ -65167,7 +65170,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="48" t="s">
         <v>52</v>
       </c>
@@ -65175,7 +65178,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="48" t="s">
         <v>54</v>
       </c>
@@ -65183,12 +65186,12 @@
         <v>405</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
         <v>64</v>
       </c>
@@ -65196,12 +65199,17 @@
         <v>404</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>68</v>
       </c>
       <c r="B36" t="s">
         <v>404</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>
